--- a/results/input_sweep_r17/h2000_M0.25_R1000km_PL1000kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1000km_PL1000kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.14985251729037</v>
+        <v>67.8835230059692</v>
       </c>
       <c r="F2" t="n">
-        <v>68.14985251729037</v>
+        <v>67.8835230059692</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>136.2997050345807</v>
+        <v>135.7670460119384</v>
       </c>
       <c r="F3" t="n">
-        <v>136.2997050345807</v>
+        <v>135.7670460119384</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1320.88545842133</v>
+        <v>1315.723542046919</v>
       </c>
       <c r="F4" t="n">
-        <v>992.8255053617016</v>
+        <v>988.9449077371486</v>
       </c>
       <c r="G4" t="n">
-        <v>328.0599530596289</v>
+        <v>326.7786343097702</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1362.997050345807</v>
+        <v>1357.670460119384</v>
       </c>
       <c r="F5" t="n">
-        <v>1024.517355909529</v>
+        <v>1020.512781293005</v>
       </c>
       <c r="G5" t="n">
-        <v>338.4796944362781</v>
+        <v>337.1576788263787</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>182.5488694356231</v>
       </c>
       <c r="E6" t="n">
-        <v>541.4551583691431</v>
+        <v>539.3243116952717</v>
       </c>
       <c r="F6" t="n">
-        <v>541.4551583691431</v>
+        <v>539.3243116952717</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>541.4470601654274</v>
+        <v>431.4530078896962</v>
       </c>
       <c r="F7" t="n">
-        <v>541.4470601654274</v>
+        <v>431.4530078896962</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
